--- a/C53F_GPIO/C53F_Pin_IO_Config.xlsx
+++ b/C53F_GPIO/C53F_Pin_IO_Config.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="209">
   <si>
     <t>Pin</t>
   </si>
@@ -476,9 +476,6 @@
     <t>NO_USED_PIN10_0</t>
   </si>
   <si>
-    <t>IMX_ON_OFF</t>
-  </si>
-  <si>
     <t>MDO_TFTPWR_EN</t>
   </si>
   <si>
@@ -627,9 +624,6 @@
     <t>MDI_BRAKE_FLUID</t>
   </si>
   <si>
-    <t>MDI_WASH_FLUID</t>
-  </si>
-  <si>
     <t>MDI_NIGHT_PANNEL</t>
   </si>
   <si>
@@ -709,6 +703,41 @@
   </si>
   <si>
     <t>NO_USED_PIN0_14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIBC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO_00</t>
+  </si>
+  <si>
+    <t>DIO_01</t>
+  </si>
+  <si>
+    <t>MDI_WASH_FLUID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIO_04</t>
+  </si>
+  <si>
+    <t>DIO_05</t>
+  </si>
+  <si>
+    <t>DIO_06</t>
+  </si>
+  <si>
+    <t>IMX_ON_OFF</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -835,7 +864,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1015,8 +1044,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,8 +1188,43 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1221,11 +1400,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="25">
     <cellStyle name="Header1" xfId="5"/>
     <cellStyle name="Header2" xfId="6"/>
     <cellStyle name="Header2 2" xfId="10"/>
+    <cellStyle name="Header2 2 2" xfId="20"/>
+    <cellStyle name="Header2 2 3" xfId="22"/>
+    <cellStyle name="Header2 2 4" xfId="18"/>
+    <cellStyle name="Header2 2 5" xfId="13"/>
+    <cellStyle name="Header2 2 6" xfId="16"/>
+    <cellStyle name="Header2 3" xfId="17"/>
+    <cellStyle name="Header2 4" xfId="14"/>
+    <cellStyle name="Header2 5" xfId="15"/>
+    <cellStyle name="Header2 6" xfId="23"/>
+    <cellStyle name="Header2 7" xfId="24"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal_HSIS_SGM618_V0 1" xfId="1"/>
     <cellStyle name="標準_F-39" xfId="8"/>
@@ -1233,9 +1437,11 @@
     <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 3" xfId="3"/>
     <cellStyle name="常规 4" xfId="9"/>
+    <cellStyle name="常规 4 2" xfId="19"/>
     <cellStyle name="常规 5" xfId="12"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="超链接 2 2" xfId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1599,10 +1805,10 @@
   <dimension ref="A1:AC118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="11" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="11" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="I81" sqref="I81"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1835,7 +2041,7 @@
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1969,62 +2175,62 @@
         <v>33</v>
       </c>
       <c r="E10" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="G10" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="58" t="s">
+      <c r="H10" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="58" t="s">
+      <c r="I10" s="58" t="s">
         <v>146</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>147</v>
       </c>
       <c r="J10" s="58" t="s">
         <v>34</v>
       </c>
       <c r="K10" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="58" t="s">
         <v>148</v>
-      </c>
-      <c r="L10" s="58" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="58" t="s">
         <v>98</v>
       </c>
       <c r="N10" s="58" t="s">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="O10" s="26"/>
       <c r="P10" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="R10" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="R10" s="58" t="s">
+      <c r="S10" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="S10" s="58" t="s">
+      <c r="T10" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="T10" s="58" t="s">
+      <c r="U10" s="58" t="s">
         <v>146</v>
-      </c>
-      <c r="U10" s="58" t="s">
-        <v>147</v>
       </c>
       <c r="V10" s="58" t="s">
         <v>34</v>
       </c>
       <c r="W10" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="X10" s="58" t="s">
         <v>148</v>
-      </c>
-      <c r="X10" s="58" t="s">
-        <v>149</v>
       </c>
       <c r="Y10" s="58" t="s">
         <v>98</v>
@@ -2079,37 +2285,37 @@
       <c r="C12" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="51">
-        <v>0</v>
-      </c>
-      <c r="E12" s="51">
-        <v>0</v>
-      </c>
-      <c r="F12" s="51">
-        <v>0</v>
-      </c>
-      <c r="G12" s="51">
-        <v>0</v>
-      </c>
-      <c r="H12" s="51">
-        <v>0</v>
-      </c>
-      <c r="I12" s="51">
-        <v>0</v>
-      </c>
-      <c r="J12" s="51">
-        <v>0</v>
-      </c>
-      <c r="K12" s="51">
-        <v>0</v>
-      </c>
-      <c r="L12" s="51">
-        <v>0</v>
-      </c>
-      <c r="M12" s="51">
-        <v>0</v>
-      </c>
-      <c r="N12" s="51">
+      <c r="D12" s="59">
+        <v>1</v>
+      </c>
+      <c r="E12" s="59">
+        <v>0</v>
+      </c>
+      <c r="F12" s="59">
+        <v>0</v>
+      </c>
+      <c r="G12" s="59">
+        <v>0</v>
+      </c>
+      <c r="H12" s="59">
+        <v>0</v>
+      </c>
+      <c r="I12" s="59">
+        <v>0</v>
+      </c>
+      <c r="J12" s="59">
+        <v>0</v>
+      </c>
+      <c r="K12" s="59">
+        <v>0</v>
+      </c>
+      <c r="L12" s="59">
+        <v>0</v>
+      </c>
+      <c r="M12" s="59">
+        <v>0</v>
+      </c>
+      <c r="N12" s="59">
         <v>0</v>
       </c>
       <c r="O12" s="51"/>
@@ -2160,38 +2366,38 @@
       <c r="C13" s="53" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="54">
-        <v>0</v>
-      </c>
-      <c r="E13" s="54">
-        <v>0</v>
-      </c>
-      <c r="F13" s="54">
-        <v>0</v>
-      </c>
-      <c r="G13" s="54">
-        <v>0</v>
-      </c>
-      <c r="H13" s="54">
-        <v>0</v>
-      </c>
-      <c r="I13" s="54">
-        <v>0</v>
-      </c>
-      <c r="J13" s="54">
-        <v>0</v>
-      </c>
-      <c r="K13" s="54">
-        <v>0</v>
-      </c>
-      <c r="L13" s="54">
-        <v>0</v>
-      </c>
-      <c r="M13" s="54">
-        <v>0</v>
-      </c>
-      <c r="N13" s="54">
-        <v>0</v>
+      <c r="D13" s="60">
+        <v>1</v>
+      </c>
+      <c r="E13" s="60">
+        <v>1</v>
+      </c>
+      <c r="F13" s="60">
+        <v>0</v>
+      </c>
+      <c r="G13" s="60">
+        <v>0</v>
+      </c>
+      <c r="H13" s="60">
+        <v>0</v>
+      </c>
+      <c r="I13" s="60">
+        <v>0</v>
+      </c>
+      <c r="J13" s="60">
+        <v>0</v>
+      </c>
+      <c r="K13" s="60">
+        <v>0</v>
+      </c>
+      <c r="L13" s="60">
+        <v>0</v>
+      </c>
+      <c r="M13" s="60">
+        <v>0</v>
+      </c>
+      <c r="N13" s="60">
+        <v>1</v>
       </c>
       <c r="O13" s="54"/>
       <c r="P13" s="55">
@@ -2241,37 +2447,37 @@
       <c r="C14" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="54">
-        <v>0</v>
-      </c>
-      <c r="E14" s="54">
-        <v>0</v>
-      </c>
-      <c r="F14" s="54">
-        <v>0</v>
-      </c>
-      <c r="G14" s="54">
-        <v>0</v>
-      </c>
-      <c r="H14" s="54">
-        <v>0</v>
-      </c>
-      <c r="I14" s="54">
-        <v>0</v>
-      </c>
-      <c r="J14" s="54">
-        <v>0</v>
-      </c>
-      <c r="K14" s="54">
-        <v>0</v>
-      </c>
-      <c r="L14" s="54">
-        <v>0</v>
-      </c>
-      <c r="M14" s="54">
-        <v>0</v>
-      </c>
-      <c r="N14" s="54">
+      <c r="D14" s="61">
+        <v>1</v>
+      </c>
+      <c r="E14" s="61">
+        <v>0</v>
+      </c>
+      <c r="F14" s="61">
+        <v>0</v>
+      </c>
+      <c r="G14" s="61">
+        <v>0</v>
+      </c>
+      <c r="H14" s="61">
+        <v>0</v>
+      </c>
+      <c r="I14" s="61">
+        <v>0</v>
+      </c>
+      <c r="J14" s="61">
+        <v>0</v>
+      </c>
+      <c r="K14" s="61">
+        <v>0</v>
+      </c>
+      <c r="L14" s="61">
+        <v>0</v>
+      </c>
+      <c r="M14" s="61">
+        <v>0</v>
+      </c>
+      <c r="N14" s="61">
         <v>0</v>
       </c>
       <c r="O14" s="24"/>
@@ -2322,38 +2528,38 @@
       <c r="C15" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="54">
-        <v>0</v>
-      </c>
-      <c r="E15" s="54">
-        <v>0</v>
-      </c>
-      <c r="F15" s="54">
-        <v>0</v>
-      </c>
-      <c r="G15" s="54">
-        <v>0</v>
-      </c>
-      <c r="H15" s="54">
-        <v>0</v>
-      </c>
-      <c r="I15" s="54">
-        <v>0</v>
-      </c>
-      <c r="J15" s="54">
-        <v>0</v>
-      </c>
-      <c r="K15" s="54">
-        <v>0</v>
-      </c>
-      <c r="L15" s="54">
-        <v>0</v>
-      </c>
-      <c r="M15" s="54">
-        <v>0</v>
-      </c>
-      <c r="N15" s="54">
-        <v>0</v>
+      <c r="D15" s="61">
+        <v>1</v>
+      </c>
+      <c r="E15" s="61">
+        <v>1</v>
+      </c>
+      <c r="F15" s="61">
+        <v>0</v>
+      </c>
+      <c r="G15" s="61">
+        <v>0</v>
+      </c>
+      <c r="H15" s="61">
+        <v>0</v>
+      </c>
+      <c r="I15" s="61">
+        <v>0</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0</v>
+      </c>
+      <c r="K15" s="61">
+        <v>0</v>
+      </c>
+      <c r="L15" s="61">
+        <v>0</v>
+      </c>
+      <c r="M15" s="61">
+        <v>0</v>
+      </c>
+      <c r="N15" s="61">
+        <v>1</v>
       </c>
       <c r="O15" s="24"/>
       <c r="P15" s="48">
@@ -2401,39 +2607,39 @@
         <v>8</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="54">
-        <v>0</v>
-      </c>
-      <c r="E16" s="54">
-        <v>0</v>
-      </c>
-      <c r="F16" s="54">
-        <v>0</v>
-      </c>
-      <c r="G16" s="54">
-        <v>0</v>
-      </c>
-      <c r="H16" s="54">
-        <v>0</v>
-      </c>
-      <c r="I16" s="54">
-        <v>0</v>
-      </c>
-      <c r="J16" s="54">
-        <v>0</v>
-      </c>
-      <c r="K16" s="54">
-        <v>0</v>
-      </c>
-      <c r="L16" s="54">
-        <v>0</v>
-      </c>
-      <c r="M16" s="54">
-        <v>0</v>
-      </c>
-      <c r="N16" s="54">
+        <v>155</v>
+      </c>
+      <c r="D16" s="61">
+        <v>1</v>
+      </c>
+      <c r="E16" s="61">
+        <v>0</v>
+      </c>
+      <c r="F16" s="61">
+        <v>0</v>
+      </c>
+      <c r="G16" s="61">
+        <v>0</v>
+      </c>
+      <c r="H16" s="61">
+        <v>0</v>
+      </c>
+      <c r="I16" s="61">
+        <v>0</v>
+      </c>
+      <c r="J16" s="61">
+        <v>0</v>
+      </c>
+      <c r="K16" s="61">
+        <v>0</v>
+      </c>
+      <c r="L16" s="61">
+        <v>0</v>
+      </c>
+      <c r="M16" s="61">
+        <v>0</v>
+      </c>
+      <c r="N16" s="61">
         <v>0</v>
       </c>
       <c r="O16" s="24"/>
@@ -2484,38 +2690,38 @@
       <c r="C17" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="54">
-        <v>0</v>
-      </c>
-      <c r="E17" s="54">
-        <v>0</v>
-      </c>
-      <c r="F17" s="54">
-        <v>0</v>
-      </c>
-      <c r="G17" s="54">
-        <v>0</v>
-      </c>
-      <c r="H17" s="54">
-        <v>0</v>
-      </c>
-      <c r="I17" s="54">
-        <v>0</v>
-      </c>
-      <c r="J17" s="54">
-        <v>0</v>
-      </c>
-      <c r="K17" s="54">
-        <v>0</v>
-      </c>
-      <c r="L17" s="54">
-        <v>0</v>
-      </c>
-      <c r="M17" s="54">
-        <v>0</v>
-      </c>
-      <c r="N17" s="54">
-        <v>0</v>
+      <c r="D17" s="61">
+        <v>1</v>
+      </c>
+      <c r="E17" s="61">
+        <v>1</v>
+      </c>
+      <c r="F17" s="61">
+        <v>0</v>
+      </c>
+      <c r="G17" s="61">
+        <v>0</v>
+      </c>
+      <c r="H17" s="61">
+        <v>0</v>
+      </c>
+      <c r="I17" s="61">
+        <v>0</v>
+      </c>
+      <c r="J17" s="61">
+        <v>0</v>
+      </c>
+      <c r="K17" s="61">
+        <v>0</v>
+      </c>
+      <c r="L17" s="61">
+        <v>0</v>
+      </c>
+      <c r="M17" s="61">
+        <v>0</v>
+      </c>
+      <c r="N17" s="61">
+        <v>1</v>
       </c>
       <c r="O17" s="24"/>
       <c r="P17" s="48">
@@ -2565,37 +2771,37 @@
       <c r="C18" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="54">
-        <v>0</v>
-      </c>
-      <c r="E18" s="54">
-        <v>0</v>
-      </c>
-      <c r="F18" s="54">
-        <v>0</v>
-      </c>
-      <c r="G18" s="54">
-        <v>0</v>
-      </c>
-      <c r="H18" s="54">
-        <v>0</v>
-      </c>
-      <c r="I18" s="54">
-        <v>0</v>
-      </c>
-      <c r="J18" s="54">
-        <v>0</v>
-      </c>
-      <c r="K18" s="54">
-        <v>0</v>
-      </c>
-      <c r="L18" s="54">
-        <v>0</v>
-      </c>
-      <c r="M18" s="54">
-        <v>0</v>
-      </c>
-      <c r="N18" s="54">
+      <c r="D18" s="61">
+        <v>0</v>
+      </c>
+      <c r="E18" s="61">
+        <v>0</v>
+      </c>
+      <c r="F18" s="61">
+        <v>0</v>
+      </c>
+      <c r="G18" s="61">
+        <v>0</v>
+      </c>
+      <c r="H18" s="61">
+        <v>0</v>
+      </c>
+      <c r="I18" s="61">
+        <v>0</v>
+      </c>
+      <c r="J18" s="61">
+        <v>0</v>
+      </c>
+      <c r="K18" s="61">
+        <v>0</v>
+      </c>
+      <c r="L18" s="61">
+        <v>0</v>
+      </c>
+      <c r="M18" s="61">
+        <v>0</v>
+      </c>
+      <c r="N18" s="61">
         <v>0</v>
       </c>
       <c r="O18" s="24"/>
@@ -2644,13 +2850,13 @@
         <v>11</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D19" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="54">
         <v>0</v>
@@ -2677,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" s="56"/>
       <c r="P19" s="57">
@@ -2725,10 +2931,10 @@
         <v>12</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="54">
         <v>0</v>
@@ -2806,7 +3012,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="53" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D21" s="54">
         <v>0</v>
@@ -2887,13 +3093,13 @@
         <v>14</v>
       </c>
       <c r="C22" s="53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D22" s="54">
         <v>0</v>
       </c>
       <c r="E22" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="54">
         <v>0</v>
@@ -2968,10 +3174,10 @@
         <v>15</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D23" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="54">
         <v>0</v>
@@ -3049,10 +3255,10 @@
         <v>16</v>
       </c>
       <c r="C24" s="53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D24" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="54">
         <v>0</v>
@@ -3130,13 +3336,13 @@
         <v>17</v>
       </c>
       <c r="C25" s="53" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D25" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="54">
         <v>0</v>
@@ -3211,13 +3417,13 @@
         <v>18</v>
       </c>
       <c r="C26" s="53" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D26" s="54">
         <v>0</v>
       </c>
       <c r="E26" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="54">
         <v>0</v>
@@ -3424,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" s="24">
         <v>0</v>
@@ -3493,7 +3699,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="54">
         <v>0</v>
@@ -3505,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="54">
         <v>0</v>
@@ -3574,13 +3780,13 @@
         <v>41</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D33" s="54">
         <v>0</v>
       </c>
       <c r="E33" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="54">
         <v>0</v>
@@ -3655,13 +3861,13 @@
         <v>42</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D34" s="54">
         <v>0</v>
       </c>
       <c r="E34" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" s="54">
         <v>0</v>
@@ -3736,13 +3942,13 @@
         <v>43</v>
       </c>
       <c r="C35" s="53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D35" s="54">
         <v>0</v>
       </c>
       <c r="E35" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" s="54">
         <v>0</v>
@@ -3817,40 +4023,40 @@
         <v>44</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="54">
-        <v>0</v>
-      </c>
-      <c r="E36" s="54">
-        <v>0</v>
-      </c>
-      <c r="F36" s="54">
-        <v>0</v>
-      </c>
-      <c r="G36" s="54">
-        <v>0</v>
-      </c>
-      <c r="H36" s="54">
-        <v>0</v>
-      </c>
-      <c r="I36" s="54">
-        <v>0</v>
-      </c>
-      <c r="J36" s="54">
-        <v>0</v>
-      </c>
-      <c r="K36" s="54">
-        <v>0</v>
-      </c>
-      <c r="L36" s="54">
-        <v>0</v>
-      </c>
-      <c r="M36" s="54">
-        <v>0</v>
-      </c>
-      <c r="N36" s="54">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="D36" s="62">
+        <v>1</v>
+      </c>
+      <c r="E36" s="62">
+        <v>1</v>
+      </c>
+      <c r="F36" s="62">
+        <v>0</v>
+      </c>
+      <c r="G36" s="62">
+        <v>0</v>
+      </c>
+      <c r="H36" s="62">
+        <v>0</v>
+      </c>
+      <c r="I36" s="62">
+        <v>0</v>
+      </c>
+      <c r="J36" s="62">
+        <v>0</v>
+      </c>
+      <c r="K36" s="62">
+        <v>0</v>
+      </c>
+      <c r="L36" s="62">
+        <v>0</v>
+      </c>
+      <c r="M36" s="62">
+        <v>0</v>
+      </c>
+      <c r="N36" s="62">
+        <v>1</v>
       </c>
       <c r="O36" s="24"/>
       <c r="P36" s="48">
@@ -3887,8 +4093,12 @@
         <v>0</v>
       </c>
       <c r="AA36" s="42"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
+      <c r="AB36" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC36" s="41">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" spans="1:29" s="31" customFormat="1">
       <c r="A37" s="29">
@@ -3901,10 +4111,10 @@
         <v>127</v>
       </c>
       <c r="D37" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" s="54">
         <v>0</v>
@@ -3931,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="N37" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" s="24"/>
       <c r="P37" s="48">
@@ -3968,8 +4178,12 @@
         <v>0</v>
       </c>
       <c r="AA37" s="42"/>
-      <c r="AB37" s="41"/>
-      <c r="AC37" s="41"/>
+      <c r="AB37" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC37" s="41">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:29" s="31" customFormat="1">
       <c r="A38" s="29">
@@ -3979,13 +4193,13 @@
         <v>46</v>
       </c>
       <c r="C38" s="53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D38" s="54">
         <v>0</v>
       </c>
       <c r="E38" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" s="54">
         <v>0</v>
@@ -4012,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="24"/>
       <c r="P38" s="48">
@@ -4049,8 +4263,12 @@
         <v>0</v>
       </c>
       <c r="AA38" s="42"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
+      <c r="AB38" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="AC38" s="41">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" spans="1:29" s="31" customFormat="1">
       <c r="A39" s="29">
@@ -4060,7 +4278,7 @@
         <v>47</v>
       </c>
       <c r="C39" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D39" s="54">
         <v>0</v>
@@ -4153,7 +4371,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" s="54">
         <v>0</v>
@@ -4222,13 +4440,13 @@
         <v>50</v>
       </c>
       <c r="C41" s="53" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D41" s="54">
         <v>0</v>
       </c>
       <c r="E41" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="54">
         <v>0</v>
@@ -4303,13 +4521,13 @@
         <v>51</v>
       </c>
       <c r="C42" s="53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D42" s="54">
         <v>0</v>
       </c>
       <c r="E42" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" s="54">
         <v>0</v>
@@ -4585,13 +4803,13 @@
         <v>53</v>
       </c>
       <c r="C48" s="53" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D48" s="24">
         <v>0</v>
       </c>
       <c r="E48" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" s="24">
         <v>0</v>
@@ -4666,7 +4884,7 @@
         <v>54</v>
       </c>
       <c r="C49" s="53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D49" s="24">
         <v>0</v>
@@ -4747,13 +4965,13 @@
         <v>55</v>
       </c>
       <c r="C50" s="53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" s="24">
         <v>0</v>
       </c>
       <c r="E50" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" s="24">
         <v>0</v>
@@ -4780,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="24"/>
       <c r="P50" s="48">
@@ -4817,8 +5035,12 @@
         <v>0</v>
       </c>
       <c r="AA50" s="42"/>
-      <c r="AB50" s="41"/>
-      <c r="AC50" s="41"/>
+      <c r="AB50" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC50" s="41">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" spans="1:29" s="31" customFormat="1">
       <c r="A51" s="23">
@@ -4828,13 +5050,13 @@
         <v>56</v>
       </c>
       <c r="C51" s="53" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="D51" s="24">
         <v>0</v>
       </c>
       <c r="E51" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="24">
         <v>0</v>
@@ -4860,8 +5082,8 @@
       <c r="M51" s="24">
         <v>0</v>
       </c>
-      <c r="N51" s="24">
-        <v>0</v>
+      <c r="N51" s="54">
+        <v>1</v>
       </c>
       <c r="O51" s="24"/>
       <c r="P51" s="48">
@@ -4898,8 +5120,12 @@
         <v>0</v>
       </c>
       <c r="AA51" s="42"/>
-      <c r="AB51" s="41"/>
-      <c r="AC51" s="41"/>
+      <c r="AB51" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="AC51" s="41">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" spans="1:29" s="31" customFormat="1">
       <c r="A52" s="23">
@@ -4909,13 +5135,13 @@
         <v>57</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D52" s="24">
         <v>0</v>
       </c>
       <c r="E52" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="24">
         <v>0</v>
@@ -4941,8 +5167,8 @@
       <c r="M52" s="24">
         <v>0</v>
       </c>
-      <c r="N52" s="24">
-        <v>0</v>
+      <c r="N52" s="54">
+        <v>1</v>
       </c>
       <c r="O52" s="24"/>
       <c r="P52" s="48">
@@ -4979,8 +5205,12 @@
         <v>0</v>
       </c>
       <c r="AA52" s="42"/>
-      <c r="AB52" s="41"/>
-      <c r="AC52" s="41"/>
+      <c r="AB52" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC52" s="41">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:29" s="31" customFormat="1">
       <c r="A53" s="23">
@@ -4990,13 +5220,13 @@
         <v>58</v>
       </c>
       <c r="C53" s="53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D53" s="24">
         <v>0</v>
       </c>
       <c r="E53" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" s="24">
         <v>0</v>
@@ -5022,8 +5252,8 @@
       <c r="M53" s="24">
         <v>0</v>
       </c>
-      <c r="N53" s="24">
-        <v>0</v>
+      <c r="N53" s="54">
+        <v>1</v>
       </c>
       <c r="O53" s="24"/>
       <c r="P53" s="48">
@@ -5060,8 +5290,12 @@
         <v>0</v>
       </c>
       <c r="AA53" s="42"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="41"/>
+      <c r="AB53" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="AC53" s="41">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" spans="1:29" s="31" customFormat="1">
       <c r="A54" s="23">
@@ -5071,19 +5305,19 @@
         <v>59</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D54" s="24">
         <v>0</v>
       </c>
       <c r="E54" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="24">
         <v>0</v>
       </c>
       <c r="G54" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="24">
         <v>0</v>
@@ -5103,7 +5337,7 @@
       <c r="M54" s="24">
         <v>0</v>
       </c>
-      <c r="N54" s="24">
+      <c r="N54" s="54">
         <v>0</v>
       </c>
       <c r="O54" s="24"/>
@@ -5141,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="AA54" s="42"/>
-      <c r="AB54" s="41"/>
+      <c r="AB54" s="63"/>
       <c r="AC54" s="41"/>
     </row>
     <row r="55" spans="1:29">
@@ -5278,7 +5512,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="24">
         <v>0</v>
@@ -5353,7 +5587,7 @@
         <v>36</v>
       </c>
       <c r="C60" s="53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D60" s="54">
         <v>0</v>
@@ -5365,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="54">
         <v>0</v>
@@ -5434,7 +5668,7 @@
         <v>37</v>
       </c>
       <c r="C61" s="53" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="54">
         <v>0</v>
@@ -5515,7 +5749,7 @@
         <v>21</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D62" s="54">
         <v>0</v>
@@ -5596,13 +5830,13 @@
         <v>22</v>
       </c>
       <c r="C63" s="53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D63" s="54">
         <v>0</v>
       </c>
       <c r="E63" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="54">
         <v>0</v>
@@ -5677,7 +5911,7 @@
         <v>23</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D64" s="54">
         <v>0</v>
@@ -5758,13 +5992,13 @@
         <v>24</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D65" s="54">
         <v>0</v>
       </c>
       <c r="E65" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="54">
         <v>0</v>
@@ -5839,13 +6073,13 @@
         <v>25</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D66" s="54">
         <v>0</v>
       </c>
       <c r="E66" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" s="54">
         <v>0</v>
@@ -5920,7 +6154,7 @@
         <v>26</v>
       </c>
       <c r="C67" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D67" s="54">
         <v>0</v>
@@ -6001,13 +6235,13 @@
         <v>27</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D68" s="54">
         <v>0</v>
       </c>
       <c r="E68" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="54">
         <v>0</v>
@@ -6082,13 +6316,13 @@
         <v>38</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D69" s="54">
         <v>0</v>
       </c>
       <c r="E69" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69" s="54">
         <v>0</v>
@@ -6163,7 +6397,7 @@
         <v>28</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D70" s="54">
         <v>0</v>
@@ -6244,7 +6478,7 @@
         <v>29</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D71" s="54">
         <v>0</v>
@@ -6325,7 +6559,7 @@
         <v>30</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D72" s="54">
         <v>0</v>
@@ -6406,7 +6640,7 @@
         <v>31</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D73" s="54">
         <v>0</v>
@@ -6418,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="54">
         <v>0</v>
@@ -6487,10 +6721,10 @@
         <v>32</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D74" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="54">
         <v>0</v>
@@ -6688,7 +6922,7 @@
         <v>49</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D79" s="24">
         <v>0</v>
@@ -6769,7 +7003,7 @@
         <v>60</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D80" s="54">
         <v>0</v>
@@ -6850,10 +7084,10 @@
         <v>61</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D81" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="54">
         <v>0</v>
@@ -6931,10 +7165,10 @@
         <v>62</v>
       </c>
       <c r="C82" s="53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D82" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="54">
         <v>0</v>
@@ -7012,13 +7246,13 @@
         <v>63</v>
       </c>
       <c r="C83" s="53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D83" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" s="54">
         <v>0</v>
@@ -7093,13 +7327,13 @@
         <v>64</v>
       </c>
       <c r="C84" s="53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D84" s="54">
         <v>0</v>
       </c>
       <c r="E84" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" s="54">
         <v>0</v>
@@ -7174,7 +7408,7 @@
         <v>65</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="D85" s="54">
         <v>0</v>
@@ -7186,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="54">
         <v>0</v>
@@ -7255,13 +7489,13 @@
         <v>66</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D86" s="54">
         <v>0</v>
       </c>
       <c r="E86" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86" s="54">
         <v>0</v>
@@ -8062,13 +8296,13 @@
         <v>73</v>
       </c>
       <c r="C101" s="53" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D101" s="24">
         <v>0</v>
       </c>
       <c r="E101" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" s="24">
         <v>0</v>
@@ -8143,7 +8377,7 @@
         <v>74</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D102" s="54">
         <v>0</v>
@@ -8224,7 +8458,7 @@
         <v>75</v>
       </c>
       <c r="C103" s="53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D103" s="54">
         <v>0</v>
@@ -8305,7 +8539,7 @@
         <v>76</v>
       </c>
       <c r="C104" s="53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D104" s="54">
         <v>0</v>
@@ -8317,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="G104" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="54">
         <v>0</v>
@@ -8386,13 +8620,13 @@
         <v>77</v>
       </c>
       <c r="C105" s="53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D105" s="54">
         <v>0</v>
       </c>
       <c r="E105" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" s="54">
         <v>0</v>
@@ -8467,13 +8701,13 @@
         <v>78</v>
       </c>
       <c r="C106" s="53" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D106" s="54">
         <v>0</v>
       </c>
       <c r="E106" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" s="54">
         <v>0</v>
@@ -8548,7 +8782,7 @@
         <v>79</v>
       </c>
       <c r="C107" s="53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D107" s="54">
         <v>0</v>
@@ -8560,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H107" s="54">
         <v>0</v>
@@ -8629,13 +8863,13 @@
         <v>80</v>
       </c>
       <c r="C108" s="53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D108" s="54">
         <v>0</v>
       </c>
       <c r="E108" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" s="54">
         <v>0</v>
@@ -8710,13 +8944,13 @@
         <v>81</v>
       </c>
       <c r="C109" s="53" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D109" s="54">
         <v>0</v>
       </c>
       <c r="E109" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" s="54">
         <v>0</v>
@@ -8791,13 +9025,13 @@
         <v>82</v>
       </c>
       <c r="C110" s="53" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D110" s="54">
         <v>0</v>
       </c>
       <c r="E110" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" s="54">
         <v>0</v>
@@ -8824,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="N110" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" s="24"/>
       <c r="P110" s="48">
@@ -8872,13 +9106,13 @@
         <v>83</v>
       </c>
       <c r="C111" s="53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D111" s="54">
         <v>0</v>
       </c>
       <c r="E111" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="54">
         <v>0</v>
@@ -8953,13 +9187,13 @@
         <v>84</v>
       </c>
       <c r="C112" s="53" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D112" s="54">
         <v>0</v>
       </c>
       <c r="E112" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" s="54">
         <v>0</v>
@@ -9034,13 +9268,13 @@
         <v>85</v>
       </c>
       <c r="C113" s="53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D113" s="54">
         <v>0</v>
       </c>
       <c r="E113" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" s="54">
         <v>0</v>
@@ -9121,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="E114" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" s="54">
         <v>0</v>
@@ -9202,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="E115" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115" s="54">
         <v>0</v>
@@ -9283,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="54">
         <v>0</v>
@@ -9441,7 +9675,6 @@
     <hyperlink ref="M33" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
     <hyperlink ref="M34" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
     <hyperlink ref="M35" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
-    <hyperlink ref="M36" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
     <hyperlink ref="M37" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
     <hyperlink ref="M38" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
     <hyperlink ref="M39" location="'INPUT &amp; OUTPUT'!A1" display="INPUT &amp; OUTPUT"/>
